--- a/data/evaluation/evaluation_HaSharon_Autumn_Peppers.xlsx
+++ b/data/evaluation/evaluation_HaSharon_Autumn_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.4004972510656</v>
+        <v>675.9257166923255</v>
       </c>
       <c r="C4" t="n">
-        <v>1963052.270501025</v>
+        <v>1953671.547873376</v>
       </c>
       <c r="D4" t="n">
-        <v>1401.089672540993</v>
+        <v>1397.738011171398</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05709674776125628</v>
+        <v>-0.05204526159843081</v>
       </c>
     </row>
     <row r="5">
